--- a/biology/Microbiologie/Celerinatantimonas/Celerinatantimonas.xlsx
+++ b/biology/Microbiologie/Celerinatantimonas/Celerinatantimonas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Celerinatantimonas représentent un genre de bactéries marines à Gram négatif phylogénétiquement incluses dans l'ordre des Alteromonadales. Ces bactéries marines peuvent se retrouver lors de la fermentation de diverses olives de table. Elles ont aussi été retrouvées comme symbiote de Posidonia oceanica en lui fournissant son azote.
 </t>
@@ -513,17 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Étymologie
-L'étymologie du genre Celerinatantimonas est la suivante : Ce.le.ri.na.tan’ti.mo’nas L. masc. adj. celer, rapide; L. pres. part. natans, nager; L. fem. n. monas, unité; N.L. fem. n. Celerinatantimonas, l'unité nageant rapidement[1],[2].
-Historique
-Le genre Celerinatantimonas et sa famille Celerinatantimonadaceae ont été décrits en 2011 et l'étude des séquences de leur ARNr 16S a permis de les positionner proche des familles Alteromonadaceae et Colwelliaceae[3]. Ils sont donc dans l'ordre des Alteromonadales décrit depuis 2005[4],[5]. Ces bactéries font partie de la classe des Gammaproteobacteria[5].
-Liste des espèces
-Espèces publiées de manière valide
-Selon la LPSN  (14 septembre 2022)[6], le genre Celerinatantimonas compte deux espèces publiées de manière valide :
-Celerinatantimonas diazotrophica, espèce type
-Celerinatantimonas yamalensis
-Espèces publiées de manière non valide
-"Candidatus Celerinatantimonas neptuna"</t>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du genre Celerinatantimonas est la suivante : Ce.le.ri.na.tan’ti.mo’nas L. masc. adj. celer, rapide; L. pres. part. natans, nager; L. fem. n. monas, unité; N.L. fem. n. Celerinatantimonas, l'unité nageant rapidement,.
+</t>
         </is>
       </c>
     </row>
@@ -548,13 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lors de sa description de 2011, le genre Celerinatantimonas est composé de bactéries à Gram négatif. Ce sont de gros bacilles à mobiles par l'intermédiaire d'un flagelle polaire unique[1],[3]. Ces bacilles ne forment pas d'endospores[3]. Ces bactéries sont anaérobies facultatives et nécessitent des conditions mésophiles et du NaCl pour leur croissance[1]. Les Celerinatantimonadaceae sont catalase positives et oxydase négatives.
-Le pourcentage en bases nucléotidiques GC de l'ADN est situé entre 41,5 % et 44,4 % en 2011[1].
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Celerinatantimonas et sa famille Celerinatantimonadaceae ont été décrits en 2011 et l'étude des séquences de leur ARNr 16S a permis de les positionner proche des familles Alteromonadaceae et Colwelliaceae. Ils sont donc dans l'ordre des Alteromonadales décrit depuis 2005,. Ces bactéries font partie de la classe des Gammaproteobacteria.
 </t>
         </is>
       </c>
@@ -580,12 +594,130 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Espèces publiées de manière valide</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (14 septembre 2022), le genre Celerinatantimonas compte deux espèces publiées de manière valide :
+Celerinatantimonas diazotrophica, espèce type
+Celerinatantimonas yamalensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Celerinatantimonas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celerinatantimonas</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Espèces publiées de manière non valide</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>"Candidatus Celerinatantimonas neptuna"</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Celerinatantimonas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celerinatantimonas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa description de 2011, le genre Celerinatantimonas est composé de bactéries à Gram négatif. Ce sont de gros bacilles à mobiles par l'intermédiaire d'un flagelle polaire unique,. Ces bacilles ne forment pas d'endospores. Ces bactéries sont anaérobies facultatives et nécessitent des conditions mésophiles et du NaCl pour leur croissance. Les Celerinatantimonadaceae sont catalase positives et oxydase négatives.
+Le pourcentage en bases nucléotidiques GC de l'ADN est situé entre 41,5 % et 44,4 % en 2011.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Celerinatantimonas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celerinatantimonas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces bactéries sont des bactéries marines. Elles ont été isolées à partir des racines de la plante Juncus roemerianus et des racines des graminées de l'espèce Spartina alterniflora, présentes dans les marais salants du North Inlet de l'île Goat Island près de Georgetown en Caroline du Sud[7].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces bactéries sont des bactéries marines. Elles ont été isolées à partir des racines de la plante Juncus roemerianus et des racines des graminées de l'espèce Spartina alterniflora, présentes dans les marais salants du North Inlet de l'île Goat Island près de Georgetown en Caroline du Sud.
 </t>
         </is>
       </c>
